--- a/docs/gantt/Gantt_Chart_6.xlsx
+++ b/docs/gantt/Gantt_Chart_6.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Software Engineering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Group Project\GitHub\docs\gantt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B2F0E0-7FED-47E7-9245-CAD551587A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03957356-C7E6-4387-A416-1509C025A228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1059,7 +1059,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1408,62 +1408,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="47" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1512,6 +1456,65 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1874,8 +1877,8 @@
   </sheetPr>
   <dimension ref="A1:BY53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AN53" sqref="AN53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1970,37 +1973,37 @@
     </row>
     <row r="2" spans="1:77" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="145"/>
-      <c r="N2" s="147"/>
-      <c r="O2" s="145"/>
-      <c r="P2" s="145"/>
-      <c r="Q2" s="145"/>
-      <c r="R2" s="145"/>
-      <c r="S2" s="145"/>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="145"/>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="145"/>
-      <c r="Z2" s="145"/>
-      <c r="AA2" s="145"/>
-      <c r="AB2" s="145"/>
-      <c r="AC2" s="145"/>
-      <c r="AD2" s="145"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="153"/>
+      <c r="O2" s="151"/>
+      <c r="P2" s="151"/>
+      <c r="Q2" s="151"/>
+      <c r="R2" s="151"/>
+      <c r="S2" s="151"/>
+      <c r="T2" s="151"/>
+      <c r="U2" s="151"/>
+      <c r="V2" s="151"/>
+      <c r="W2" s="151"/>
+      <c r="X2" s="151"/>
+      <c r="Y2" s="151"/>
+      <c r="Z2" s="151"/>
+      <c r="AA2" s="151"/>
+      <c r="AB2" s="151"/>
+      <c r="AC2" s="151"/>
+      <c r="AD2" s="151"/>
       <c r="AE2" s="11"/>
       <c r="AF2" s="11"/>
       <c r="AG2" s="11"/>
@@ -2128,42 +2131,42 @@
       <c r="BX3" s="1"/>
       <c r="BY3" s="1"/>
     </row>
-    <row r="4" spans="1:77" ht="21" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:77" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="128" t="s">
+      <c r="B4" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="129"/>
-      <c r="D4" s="148" t="s">
+      <c r="C4" s="146"/>
+      <c r="D4" s="154" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="142"/>
-      <c r="H4" s="128" t="s">
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="129"/>
-      <c r="J4" s="129"/>
-      <c r="K4" s="129"/>
-      <c r="L4" s="129"/>
-      <c r="M4" s="129"/>
-      <c r="N4" s="129"/>
-      <c r="O4" s="149" t="s">
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="146"/>
+      <c r="M4" s="146"/>
+      <c r="N4" s="146"/>
+      <c r="O4" s="155" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="142"/>
-      <c r="Q4" s="142"/>
-      <c r="R4" s="142"/>
-      <c r="S4" s="142"/>
-      <c r="T4" s="142"/>
-      <c r="U4" s="142"/>
-      <c r="V4" s="142"/>
-      <c r="W4" s="142"/>
-      <c r="X4" s="142"/>
-      <c r="Y4" s="142"/>
-      <c r="Z4" s="142"/>
-      <c r="AA4" s="142"/>
+      <c r="P4" s="148"/>
+      <c r="Q4" s="148"/>
+      <c r="R4" s="148"/>
+      <c r="S4" s="148"/>
+      <c r="T4" s="148"/>
+      <c r="U4" s="148"/>
+      <c r="V4" s="148"/>
+      <c r="W4" s="148"/>
+      <c r="X4" s="148"/>
+      <c r="Y4" s="148"/>
+      <c r="Z4" s="148"/>
+      <c r="AA4" s="148"/>
       <c r="AB4" s="16"/>
       <c r="AC4" s="10"/>
       <c r="AD4" s="10"/>
@@ -2215,41 +2218,41 @@
       <c r="BX4" s="1"/>
       <c r="BY4" s="1"/>
     </row>
-    <row r="5" spans="1:77" ht="21" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:77" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="128" t="s">
+      <c r="B5" s="145" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="129"/>
-      <c r="D5" s="141" t="s">
+      <c r="C5" s="146"/>
+      <c r="D5" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="142"/>
-      <c r="F5" s="142"/>
-      <c r="G5" s="142"/>
-      <c r="H5" s="128" t="s">
+      <c r="E5" s="148"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="129"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="129"/>
-      <c r="M5" s="129"/>
-      <c r="N5" s="129"/>
-      <c r="O5" s="143">
+      <c r="I5" s="146"/>
+      <c r="J5" s="146"/>
+      <c r="K5" s="146"/>
+      <c r="L5" s="146"/>
+      <c r="M5" s="146"/>
+      <c r="N5" s="146"/>
+      <c r="O5" s="149">
         <v>44596</v>
       </c>
-      <c r="P5" s="142"/>
-      <c r="Q5" s="142"/>
-      <c r="R5" s="142"/>
-      <c r="S5" s="142"/>
-      <c r="T5" s="142"/>
-      <c r="U5" s="142"/>
-      <c r="V5" s="142"/>
-      <c r="W5" s="142"/>
-      <c r="X5" s="142"/>
-      <c r="Y5" s="142"/>
-      <c r="Z5" s="142"/>
+      <c r="P5" s="148"/>
+      <c r="Q5" s="148"/>
+      <c r="R5" s="148"/>
+      <c r="S5" s="148"/>
+      <c r="T5" s="148"/>
+      <c r="U5" s="148"/>
+      <c r="V5" s="148"/>
+      <c r="W5" s="148"/>
+      <c r="X5" s="148"/>
+      <c r="Y5" s="148"/>
+      <c r="Z5" s="148"/>
       <c r="AA5" s="17"/>
       <c r="AB5" s="16"/>
       <c r="AC5" s="1"/>
@@ -2304,10 +2307,10 @@
     </row>
     <row r="6" spans="1:77" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
-      <c r="B6" s="128" t="s">
+      <c r="B6" s="145" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="129"/>
+      <c r="C6" s="146"/>
       <c r="D6" s="49" t="s">
         <v>20</v>
       </c>
@@ -2322,14 +2325,14 @@
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
       <c r="O6" s="65"/>
-      <c r="P6" s="131" t="s">
+      <c r="P6" s="164" t="s">
         <v>49</v>
       </c>
-      <c r="Q6" s="131"/>
-      <c r="R6" s="131"/>
-      <c r="S6" s="131"/>
-      <c r="T6" s="131"/>
-      <c r="U6" s="131"/>
+      <c r="Q6" s="164"/>
+      <c r="R6" s="164"/>
+      <c r="S6" s="164"/>
+      <c r="T6" s="164"/>
+      <c r="U6" s="164"/>
       <c r="V6" s="19"/>
       <c r="W6" s="19"/>
       <c r="X6" s="19"/>
@@ -2389,32 +2392,32 @@
     </row>
     <row r="7" spans="1:77" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
-      <c r="B7" s="128" t="s">
+      <c r="B7" s="145" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="129"/>
-      <c r="D7" s="130" t="s">
+      <c r="C7" s="146"/>
+      <c r="D7" s="163" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="130"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="130"/>
-      <c r="K7" s="130"/>
-      <c r="L7" s="130"/>
-      <c r="M7" s="130"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="163"/>
+      <c r="J7" s="163"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="163"/>
+      <c r="M7" s="163"/>
       <c r="N7" s="19"/>
       <c r="O7" s="66"/>
-      <c r="P7" s="138" t="s">
+      <c r="P7" s="168" t="s">
         <v>47</v>
       </c>
-      <c r="Q7" s="138"/>
-      <c r="R7" s="138"/>
-      <c r="S7" s="138"/>
-      <c r="T7" s="138"/>
-      <c r="U7" s="138"/>
+      <c r="Q7" s="168"/>
+      <c r="R7" s="168"/>
+      <c r="S7" s="168"/>
+      <c r="T7" s="168"/>
+      <c r="U7" s="168"/>
       <c r="V7" s="19"/>
       <c r="W7" s="19"/>
       <c r="X7" s="19"/>
@@ -2472,218 +2475,218 @@
       <c r="BX7" s="19"/>
       <c r="BY7" s="19"/>
     </row>
-    <row r="8" spans="1:77" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:77" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="O8" s="67"/>
-      <c r="P8" s="137" t="s">
+      <c r="P8" s="167" t="s">
         <v>48</v>
       </c>
-      <c r="Q8" s="137"/>
-      <c r="R8" s="137"/>
-      <c r="S8" s="137"/>
-      <c r="T8" s="137"/>
-      <c r="U8" s="137"/>
+      <c r="Q8" s="167"/>
+      <c r="R8" s="167"/>
+      <c r="S8" s="167"/>
+      <c r="T8" s="167"/>
+      <c r="U8" s="167"/>
     </row>
     <row r="9" spans="1:77" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
     </row>
     <row r="10" spans="1:77" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
-      <c r="B10" s="132" t="s">
+      <c r="B10" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="132" t="s">
+      <c r="C10" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="132" t="s">
+      <c r="D10" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="132" t="s">
+      <c r="E10" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="132" t="s">
+      <c r="F10" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="132" t="s">
+      <c r="G10" s="165" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="140"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="127"/>
-      <c r="K10" s="127"/>
-      <c r="L10" s="127"/>
-      <c r="M10" s="127"/>
-      <c r="N10" s="127"/>
-      <c r="O10" s="127"/>
-      <c r="P10" s="127"/>
-      <c r="Q10" s="127"/>
-      <c r="R10" s="127"/>
-      <c r="S10" s="127"/>
-      <c r="T10" s="127"/>
-      <c r="U10" s="127"/>
-      <c r="V10" s="127"/>
-      <c r="W10" s="126"/>
-      <c r="X10" s="127"/>
-      <c r="Y10" s="127"/>
-      <c r="Z10" s="127"/>
-      <c r="AA10" s="127"/>
-      <c r="AB10" s="127"/>
-      <c r="AC10" s="127"/>
-      <c r="AD10" s="127"/>
-      <c r="AE10" s="127"/>
-      <c r="AF10" s="127"/>
-      <c r="AG10" s="127"/>
-      <c r="AH10" s="127"/>
-      <c r="AI10" s="127"/>
-      <c r="AJ10" s="127"/>
-      <c r="AK10" s="127"/>
-      <c r="AL10" s="126"/>
-      <c r="AM10" s="127"/>
-      <c r="AN10" s="127"/>
-      <c r="AO10" s="127"/>
-      <c r="AP10" s="127"/>
-      <c r="AQ10" s="127"/>
-      <c r="AR10" s="127"/>
-      <c r="AS10" s="127"/>
-      <c r="AT10" s="127"/>
-      <c r="AU10" s="127"/>
-      <c r="AV10" s="127"/>
-      <c r="AW10" s="127"/>
-      <c r="AX10" s="127"/>
-      <c r="AY10" s="127"/>
-      <c r="AZ10" s="127"/>
-      <c r="BA10" s="126"/>
-      <c r="BB10" s="127"/>
-      <c r="BC10" s="127"/>
-      <c r="BD10" s="127"/>
-      <c r="BE10" s="127"/>
-      <c r="BF10" s="127"/>
-      <c r="BG10" s="127"/>
-      <c r="BH10" s="127"/>
-      <c r="BI10" s="127"/>
-      <c r="BJ10" s="127"/>
-      <c r="BK10" s="127"/>
-      <c r="BL10" s="127"/>
-      <c r="BM10" s="127"/>
-      <c r="BN10" s="127"/>
-      <c r="BO10" s="127"/>
-      <c r="BP10" s="127"/>
-      <c r="BQ10" s="127"/>
-      <c r="BR10" s="127"/>
-      <c r="BS10" s="127"/>
-      <c r="BT10" s="127"/>
-      <c r="BU10" s="127"/>
-      <c r="BV10" s="127"/>
-      <c r="BW10" s="127"/>
-      <c r="BX10" s="127"/>
-      <c r="BY10" s="139"/>
+      <c r="H10" s="162"/>
+      <c r="I10" s="157"/>
+      <c r="J10" s="157"/>
+      <c r="K10" s="157"/>
+      <c r="L10" s="157"/>
+      <c r="M10" s="157"/>
+      <c r="N10" s="157"/>
+      <c r="O10" s="157"/>
+      <c r="P10" s="157"/>
+      <c r="Q10" s="157"/>
+      <c r="R10" s="157"/>
+      <c r="S10" s="157"/>
+      <c r="T10" s="157"/>
+      <c r="U10" s="157"/>
+      <c r="V10" s="157"/>
+      <c r="W10" s="156"/>
+      <c r="X10" s="157"/>
+      <c r="Y10" s="157"/>
+      <c r="Z10" s="157"/>
+      <c r="AA10" s="157"/>
+      <c r="AB10" s="157"/>
+      <c r="AC10" s="157"/>
+      <c r="AD10" s="157"/>
+      <c r="AE10" s="157"/>
+      <c r="AF10" s="157"/>
+      <c r="AG10" s="157"/>
+      <c r="AH10" s="157"/>
+      <c r="AI10" s="157"/>
+      <c r="AJ10" s="157"/>
+      <c r="AK10" s="157"/>
+      <c r="AL10" s="156"/>
+      <c r="AM10" s="157"/>
+      <c r="AN10" s="157"/>
+      <c r="AO10" s="157"/>
+      <c r="AP10" s="157"/>
+      <c r="AQ10" s="157"/>
+      <c r="AR10" s="157"/>
+      <c r="AS10" s="157"/>
+      <c r="AT10" s="157"/>
+      <c r="AU10" s="157"/>
+      <c r="AV10" s="157"/>
+      <c r="AW10" s="157"/>
+      <c r="AX10" s="157"/>
+      <c r="AY10" s="157"/>
+      <c r="AZ10" s="157"/>
+      <c r="BA10" s="156"/>
+      <c r="BB10" s="157"/>
+      <c r="BC10" s="157"/>
+      <c r="BD10" s="157"/>
+      <c r="BE10" s="157"/>
+      <c r="BF10" s="157"/>
+      <c r="BG10" s="157"/>
+      <c r="BH10" s="157"/>
+      <c r="BI10" s="157"/>
+      <c r="BJ10" s="157"/>
+      <c r="BK10" s="157"/>
+      <c r="BL10" s="157"/>
+      <c r="BM10" s="157"/>
+      <c r="BN10" s="157"/>
+      <c r="BO10" s="157"/>
+      <c r="BP10" s="157"/>
+      <c r="BQ10" s="157"/>
+      <c r="BR10" s="157"/>
+      <c r="BS10" s="157"/>
+      <c r="BT10" s="157"/>
+      <c r="BU10" s="157"/>
+      <c r="BV10" s="157"/>
+      <c r="BW10" s="157"/>
+      <c r="BX10" s="157"/>
+      <c r="BY10" s="158"/>
     </row>
     <row r="11" spans="1:77" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31"/>
-      <c r="B11" s="133"/>
-      <c r="C11" s="133"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="134" t="s">
+      <c r="B11" s="166"/>
+      <c r="C11" s="166"/>
+      <c r="D11" s="166"/>
+      <c r="E11" s="166"/>
+      <c r="F11" s="166"/>
+      <c r="G11" s="166"/>
+      <c r="H11" s="159" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="135"/>
-      <c r="J11" s="135"/>
-      <c r="K11" s="135"/>
-      <c r="L11" s="136"/>
-      <c r="M11" s="134" t="s">
+      <c r="I11" s="160"/>
+      <c r="J11" s="160"/>
+      <c r="K11" s="160"/>
+      <c r="L11" s="161"/>
+      <c r="M11" s="159" t="s">
         <v>35</v>
       </c>
-      <c r="N11" s="135"/>
-      <c r="O11" s="135"/>
-      <c r="P11" s="135"/>
-      <c r="Q11" s="136"/>
-      <c r="R11" s="134" t="s">
+      <c r="N11" s="160"/>
+      <c r="O11" s="160"/>
+      <c r="P11" s="160"/>
+      <c r="Q11" s="161"/>
+      <c r="R11" s="159" t="s">
         <v>34</v>
       </c>
-      <c r="S11" s="135"/>
-      <c r="T11" s="135"/>
-      <c r="U11" s="135"/>
-      <c r="V11" s="136"/>
-      <c r="W11" s="134" t="s">
+      <c r="S11" s="160"/>
+      <c r="T11" s="160"/>
+      <c r="U11" s="160"/>
+      <c r="V11" s="161"/>
+      <c r="W11" s="159" t="s">
         <v>23</v>
       </c>
-      <c r="X11" s="135"/>
-      <c r="Y11" s="135"/>
-      <c r="Z11" s="135"/>
-      <c r="AA11" s="136"/>
-      <c r="AB11" s="134" t="s">
+      <c r="X11" s="160"/>
+      <c r="Y11" s="160"/>
+      <c r="Z11" s="160"/>
+      <c r="AA11" s="161"/>
+      <c r="AB11" s="159" t="s">
         <v>33</v>
       </c>
-      <c r="AC11" s="135"/>
-      <c r="AD11" s="135"/>
-      <c r="AE11" s="135"/>
-      <c r="AF11" s="136"/>
-      <c r="AG11" s="134" t="s">
+      <c r="AC11" s="160"/>
+      <c r="AD11" s="160"/>
+      <c r="AE11" s="160"/>
+      <c r="AF11" s="161"/>
+      <c r="AG11" s="159" t="s">
         <v>32</v>
       </c>
-      <c r="AH11" s="135"/>
-      <c r="AI11" s="135"/>
-      <c r="AJ11" s="135"/>
-      <c r="AK11" s="136"/>
-      <c r="AL11" s="134" t="s">
+      <c r="AH11" s="160"/>
+      <c r="AI11" s="160"/>
+      <c r="AJ11" s="160"/>
+      <c r="AK11" s="161"/>
+      <c r="AL11" s="159" t="s">
         <v>31</v>
       </c>
-      <c r="AM11" s="135"/>
-      <c r="AN11" s="135"/>
-      <c r="AO11" s="135"/>
-      <c r="AP11" s="136"/>
-      <c r="AQ11" s="134" t="s">
+      <c r="AM11" s="160"/>
+      <c r="AN11" s="160"/>
+      <c r="AO11" s="160"/>
+      <c r="AP11" s="161"/>
+      <c r="AQ11" s="159" t="s">
         <v>30</v>
       </c>
-      <c r="AR11" s="135"/>
-      <c r="AS11" s="135"/>
-      <c r="AT11" s="135"/>
-      <c r="AU11" s="136"/>
-      <c r="AV11" s="134" t="s">
+      <c r="AR11" s="160"/>
+      <c r="AS11" s="160"/>
+      <c r="AT11" s="160"/>
+      <c r="AU11" s="161"/>
+      <c r="AV11" s="159" t="s">
         <v>29</v>
       </c>
-      <c r="AW11" s="135"/>
-      <c r="AX11" s="135"/>
-      <c r="AY11" s="135"/>
-      <c r="AZ11" s="136"/>
-      <c r="BA11" s="134" t="s">
+      <c r="AW11" s="160"/>
+      <c r="AX11" s="160"/>
+      <c r="AY11" s="160"/>
+      <c r="AZ11" s="161"/>
+      <c r="BA11" s="159" t="s">
         <v>28</v>
       </c>
-      <c r="BB11" s="135"/>
-      <c r="BC11" s="135"/>
-      <c r="BD11" s="135"/>
-      <c r="BE11" s="136"/>
-      <c r="BF11" s="134" t="s">
+      <c r="BB11" s="160"/>
+      <c r="BC11" s="160"/>
+      <c r="BD11" s="160"/>
+      <c r="BE11" s="161"/>
+      <c r="BF11" s="159" t="s">
         <v>27</v>
       </c>
-      <c r="BG11" s="135"/>
-      <c r="BH11" s="135"/>
-      <c r="BI11" s="135"/>
-      <c r="BJ11" s="136"/>
-      <c r="BK11" s="134" t="s">
+      <c r="BG11" s="160"/>
+      <c r="BH11" s="160"/>
+      <c r="BI11" s="160"/>
+      <c r="BJ11" s="161"/>
+      <c r="BK11" s="159" t="s">
         <v>26</v>
       </c>
-      <c r="BL11" s="135"/>
-      <c r="BM11" s="135"/>
-      <c r="BN11" s="135"/>
-      <c r="BO11" s="136"/>
-      <c r="BP11" s="134" t="s">
+      <c r="BL11" s="160"/>
+      <c r="BM11" s="160"/>
+      <c r="BN11" s="160"/>
+      <c r="BO11" s="161"/>
+      <c r="BP11" s="159" t="s">
         <v>25</v>
       </c>
-      <c r="BQ11" s="135"/>
-      <c r="BR11" s="135"/>
-      <c r="BS11" s="135"/>
-      <c r="BT11" s="136"/>
-      <c r="BU11" s="134" t="s">
+      <c r="BQ11" s="160"/>
+      <c r="BR11" s="160"/>
+      <c r="BS11" s="160"/>
+      <c r="BT11" s="161"/>
+      <c r="BU11" s="159" t="s">
         <v>24</v>
       </c>
-      <c r="BV11" s="135"/>
-      <c r="BW11" s="135"/>
-      <c r="BX11" s="135"/>
-      <c r="BY11" s="136"/>
+      <c r="BV11" s="160"/>
+      <c r="BW11" s="160"/>
+      <c r="BX11" s="160"/>
+      <c r="BY11" s="161"/>
     </row>
     <row r="12" spans="1:77" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="31"/>
@@ -2765,7 +2768,7 @@
       <c r="BU12" s="30"/>
       <c r="BV12" s="30"/>
       <c r="BW12" s="30"/>
-      <c r="BX12" s="167"/>
+      <c r="BX12" s="143"/>
       <c r="BY12" s="30"/>
     </row>
     <row r="13" spans="1:77" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3308,7 +3311,7 @@
       <c r="BU18" s="30"/>
       <c r="BV18" s="30"/>
       <c r="BW18" s="30"/>
-      <c r="BX18" s="167"/>
+      <c r="BX18" s="143"/>
       <c r="BY18" s="30"/>
     </row>
     <row r="19" spans="1:77" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3589,7 +3592,9 @@
     </row>
     <row r="22" spans="1:77" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="31"/>
-      <c r="B22" s="46"/>
+      <c r="B22" s="46">
+        <v>2.4</v>
+      </c>
       <c r="C22" s="50" t="s">
         <v>75</v>
       </c>
@@ -3680,7 +3685,7 @@
     <row r="23" spans="1:77" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="31"/>
       <c r="B23" s="46">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="C23" s="50" t="s">
         <v>65</v>
@@ -3772,7 +3777,7 @@
     <row r="24" spans="1:77" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="31"/>
       <c r="B24" s="32">
-        <v>2.2999999999999998</v>
+        <v>2.6</v>
       </c>
       <c r="C24" s="78" t="s">
         <v>61</v>
@@ -3864,7 +3869,7 @@
     <row r="25" spans="1:77" ht="16.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="31"/>
       <c r="B25" s="46">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="C25" s="78" t="s">
         <v>62</v>
@@ -3933,10 +3938,10 @@
       <c r="BD25" s="72"/>
       <c r="BE25" s="72"/>
       <c r="BF25" s="105"/>
-      <c r="BG25" s="152"/>
-      <c r="BH25" s="152"/>
-      <c r="BI25" s="152"/>
-      <c r="BJ25" s="152"/>
+      <c r="BG25" s="128"/>
+      <c r="BH25" s="128"/>
+      <c r="BI25" s="128"/>
+      <c r="BJ25" s="128"/>
       <c r="BK25" s="81"/>
       <c r="BL25" s="81"/>
       <c r="BM25" s="81"/>
@@ -3956,7 +3961,7 @@
     <row r="26" spans="1:77" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="31"/>
       <c r="B26" s="46">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="C26" s="78" t="s">
         <v>71</v>
@@ -3994,7 +3999,7 @@
       <c r="Y26" s="81"/>
       <c r="Z26" s="81"/>
       <c r="AA26" s="81"/>
-      <c r="AB26" s="168"/>
+      <c r="AB26" s="144"/>
       <c r="AC26" s="82"/>
       <c r="AD26" s="82"/>
       <c r="AE26" s="82"/>
@@ -4048,7 +4053,7 @@
     <row r="27" spans="1:77" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="31"/>
       <c r="B27" s="46">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="C27" s="78" t="s">
         <v>68</v>
@@ -4086,11 +4091,11 @@
       <c r="Y27" s="81"/>
       <c r="Z27" s="81"/>
       <c r="AA27" s="81"/>
-      <c r="AB27" s="168"/>
-      <c r="AC27" s="168"/>
-      <c r="AD27" s="168"/>
-      <c r="AE27" s="168"/>
-      <c r="AF27" s="168"/>
+      <c r="AB27" s="144"/>
+      <c r="AC27" s="144"/>
+      <c r="AD27" s="144"/>
+      <c r="AE27" s="144"/>
+      <c r="AF27" s="144"/>
       <c r="AG27" s="81"/>
       <c r="AH27" s="81"/>
       <c r="AI27" s="88"/>
@@ -4139,7 +4144,9 @@
     </row>
     <row r="28" spans="1:77" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="31"/>
-      <c r="B28" s="46"/>
+      <c r="B28" s="169">
+        <v>2.1</v>
+      </c>
       <c r="C28" s="78" t="s">
         <v>83</v>
       </c>
@@ -4176,11 +4183,11 @@
       <c r="Y28" s="81"/>
       <c r="Z28" s="81"/>
       <c r="AA28" s="81"/>
-      <c r="AB28" s="168"/>
-      <c r="AC28" s="168"/>
-      <c r="AD28" s="168"/>
-      <c r="AE28" s="168"/>
-      <c r="AF28" s="168"/>
+      <c r="AB28" s="144"/>
+      <c r="AC28" s="144"/>
+      <c r="AD28" s="144"/>
+      <c r="AE28" s="144"/>
+      <c r="AF28" s="144"/>
       <c r="AG28" s="81"/>
       <c r="AH28" s="81"/>
       <c r="AI28" s="88"/>
@@ -4230,7 +4237,7 @@
     <row r="29" spans="1:77" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="31"/>
       <c r="B29" s="32">
-        <v>2.8</v>
+        <v>2.11</v>
       </c>
       <c r="C29" s="50" t="s">
         <v>72</v>
@@ -4322,7 +4329,7 @@
     <row r="30" spans="1:77" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="31"/>
       <c r="B30" s="46">
-        <v>2.9</v>
+        <v>2.12</v>
       </c>
       <c r="C30" s="50" t="s">
         <v>66</v>
@@ -4414,7 +4421,7 @@
     <row r="31" spans="1:77" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="31"/>
       <c r="B31" s="32">
-        <v>2.1</v>
+        <v>2.13</v>
       </c>
       <c r="C31" s="50" t="s">
         <v>54</v>
@@ -4505,7 +4512,9 @@
     </row>
     <row r="32" spans="1:77" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="31"/>
-      <c r="B32" s="46"/>
+      <c r="B32" s="46">
+        <v>2.14</v>
+      </c>
       <c r="C32" s="116" t="s">
         <v>73</v>
       </c>
@@ -4596,7 +4605,7 @@
     <row r="33" spans="1:77" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="31"/>
       <c r="B33" s="32">
-        <v>2.11</v>
+        <v>2.15</v>
       </c>
       <c r="C33" s="76" t="s">
         <v>40</v>
@@ -4608,11 +4617,11 @@
         <v>44596</v>
       </c>
       <c r="F33" s="34">
-        <v>44603</v>
+        <v>44676</v>
       </c>
       <c r="G33" s="48">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="H33" s="40"/>
       <c r="I33" s="41"/>
@@ -4687,7 +4696,7 @@
     <row r="34" spans="1:77" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="31"/>
       <c r="B34" s="32">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="C34" s="50" t="s">
         <v>59</v>
@@ -4725,11 +4734,11 @@
       <c r="Y34" s="36"/>
       <c r="Z34" s="36"/>
       <c r="AA34" s="36"/>
-      <c r="AB34" s="168"/>
-      <c r="AC34" s="168"/>
-      <c r="AD34" s="168"/>
-      <c r="AE34" s="168"/>
-      <c r="AF34" s="168"/>
+      <c r="AB34" s="144"/>
+      <c r="AC34" s="144"/>
+      <c r="AD34" s="144"/>
+      <c r="AE34" s="144"/>
+      <c r="AF34" s="144"/>
       <c r="AG34" s="81"/>
       <c r="AH34" s="81"/>
       <c r="AI34" s="88"/>
@@ -4740,11 +4749,11 @@
       <c r="AN34" s="88"/>
       <c r="AO34" s="88"/>
       <c r="AP34" s="88"/>
-      <c r="AQ34" s="151"/>
-      <c r="AR34" s="151"/>
-      <c r="AS34" s="151"/>
-      <c r="AT34" s="151"/>
-      <c r="AU34" s="166"/>
+      <c r="AQ34" s="127"/>
+      <c r="AR34" s="127"/>
+      <c r="AS34" s="127"/>
+      <c r="AT34" s="127"/>
+      <c r="AU34" s="142"/>
       <c r="AV34" s="86"/>
       <c r="AW34" s="86"/>
       <c r="AX34" s="86"/>
@@ -4778,7 +4787,9 @@
     </row>
     <row r="35" spans="1:77" s="113" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="107"/>
-      <c r="B35" s="108"/>
+      <c r="B35" s="108">
+        <v>2.17</v>
+      </c>
       <c r="C35" s="109" t="s">
         <v>79</v>
       </c>
@@ -4815,11 +4826,11 @@
       <c r="Y35" s="81"/>
       <c r="Z35" s="81"/>
       <c r="AA35" s="81"/>
-      <c r="AB35" s="168"/>
-      <c r="AC35" s="168"/>
-      <c r="AD35" s="168"/>
-      <c r="AE35" s="168"/>
-      <c r="AF35" s="168"/>
+      <c r="AB35" s="144"/>
+      <c r="AC35" s="144"/>
+      <c r="AD35" s="144"/>
+      <c r="AE35" s="144"/>
+      <c r="AF35" s="144"/>
       <c r="AG35" s="81"/>
       <c r="AH35" s="81"/>
       <c r="AI35" s="88"/>
@@ -4837,7 +4848,7 @@
       <c r="AU35" s="87"/>
       <c r="AV35" s="86"/>
       <c r="AW35" s="86"/>
-      <c r="AX35" s="150"/>
+      <c r="AX35" s="126"/>
       <c r="AY35" s="84"/>
       <c r="AZ35" s="84"/>
       <c r="BA35" s="84"/>
@@ -4845,11 +4856,11 @@
       <c r="BC35" s="84"/>
       <c r="BD35" s="84"/>
       <c r="BE35" s="81"/>
-      <c r="BF35" s="152"/>
-      <c r="BG35" s="152"/>
-      <c r="BH35" s="152"/>
-      <c r="BI35" s="152"/>
-      <c r="BJ35" s="152"/>
+      <c r="BF35" s="128"/>
+      <c r="BG35" s="128"/>
+      <c r="BH35" s="128"/>
+      <c r="BI35" s="128"/>
+      <c r="BJ35" s="128"/>
       <c r="BK35" s="81"/>
       <c r="BL35" s="81"/>
       <c r="BM35" s="81"/>
@@ -5038,7 +5049,7 @@
       <c r="BU37" s="30"/>
       <c r="BV37" s="30"/>
       <c r="BW37" s="30"/>
-      <c r="BX37" s="167"/>
+      <c r="BX37" s="143"/>
       <c r="BY37" s="30"/>
     </row>
     <row r="38" spans="1:77" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5112,9 +5123,9 @@
       <c r="BC38" s="81"/>
       <c r="BD38" s="81"/>
       <c r="BE38" s="81"/>
-      <c r="BF38" s="152"/>
-      <c r="BG38" s="152"/>
-      <c r="BH38" s="152"/>
+      <c r="BF38" s="128"/>
+      <c r="BG38" s="128"/>
+      <c r="BH38" s="128"/>
       <c r="BI38" s="39"/>
       <c r="BJ38" s="39"/>
       <c r="BK38" s="36"/>
@@ -5135,7 +5146,9 @@
     </row>
     <row r="39" spans="1:77" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="31"/>
-      <c r="B39" s="46"/>
+      <c r="B39" s="46">
+        <v>3.2</v>
+      </c>
       <c r="C39" s="50" t="s">
         <v>80</v>
       </c>
@@ -5172,11 +5185,11 @@
       <c r="Y39" s="81"/>
       <c r="Z39" s="81"/>
       <c r="AA39" s="81"/>
-      <c r="AB39" s="168"/>
-      <c r="AC39" s="168"/>
-      <c r="AD39" s="168"/>
-      <c r="AE39" s="168"/>
-      <c r="AF39" s="168"/>
+      <c r="AB39" s="144"/>
+      <c r="AC39" s="144"/>
+      <c r="AD39" s="144"/>
+      <c r="AE39" s="144"/>
+      <c r="AF39" s="144"/>
       <c r="AG39" s="81"/>
       <c r="AH39" s="81"/>
       <c r="AI39" s="81"/>
@@ -5187,7 +5200,7 @@
       <c r="AN39" s="81"/>
       <c r="AO39" s="81"/>
       <c r="AP39" s="81"/>
-      <c r="AQ39" s="151"/>
+      <c r="AQ39" s="127"/>
       <c r="AR39" s="85"/>
       <c r="AS39" s="85"/>
       <c r="AT39" s="85"/>
@@ -5211,10 +5224,10 @@
       <c r="BL39" s="72"/>
       <c r="BM39" s="57"/>
       <c r="BN39" s="81"/>
-      <c r="BO39" s="154"/>
-      <c r="BP39" s="156"/>
-      <c r="BQ39" s="156"/>
-      <c r="BR39" s="155"/>
+      <c r="BO39" s="130"/>
+      <c r="BP39" s="132"/>
+      <c r="BQ39" s="132"/>
+      <c r="BR39" s="131"/>
       <c r="BS39" s="42"/>
       <c r="BT39" s="42"/>
       <c r="BU39" s="42"/>
@@ -5226,7 +5239,7 @@
     <row r="40" spans="1:77" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="31"/>
       <c r="B40" s="32">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="C40" s="50" t="s">
         <v>74</v>
@@ -5247,9 +5260,9 @@
       <c r="H40" s="40"/>
       <c r="I40" s="41"/>
       <c r="J40" s="42"/>
-      <c r="K40" s="153"/>
-      <c r="L40" s="158"/>
-      <c r="M40" s="157"/>
+      <c r="K40" s="129"/>
+      <c r="L40" s="134"/>
+      <c r="M40" s="133"/>
       <c r="N40" s="75"/>
       <c r="O40" s="75"/>
       <c r="P40" s="75"/>
@@ -5304,8 +5317,8 @@
       <c r="BM40" s="72"/>
       <c r="BN40" s="72"/>
       <c r="BO40" s="72"/>
-      <c r="BP40" s="159"/>
-      <c r="BQ40" s="160"/>
+      <c r="BP40" s="135"/>
+      <c r="BQ40" s="136"/>
       <c r="BR40" s="121"/>
       <c r="BS40" s="36"/>
       <c r="BT40" s="36"/>
@@ -5317,7 +5330,9 @@
     </row>
     <row r="41" spans="1:77" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="31"/>
-      <c r="B41" s="46"/>
+      <c r="B41" s="46">
+        <v>3.4</v>
+      </c>
       <c r="C41" s="50" t="s">
         <v>81</v>
       </c>
@@ -5337,9 +5352,9 @@
       <c r="H41" s="111"/>
       <c r="I41" s="112"/>
       <c r="J41" s="81"/>
-      <c r="K41" s="154"/>
-      <c r="L41" s="162"/>
-      <c r="M41" s="165"/>
+      <c r="K41" s="130"/>
+      <c r="L41" s="138"/>
+      <c r="M41" s="141"/>
       <c r="N41" s="89"/>
       <c r="O41" s="89"/>
       <c r="P41" s="89"/>
@@ -5354,11 +5369,11 @@
       <c r="Y41" s="81"/>
       <c r="Z41" s="81"/>
       <c r="AA41" s="81"/>
-      <c r="AB41" s="168"/>
-      <c r="AC41" s="168"/>
-      <c r="AD41" s="168"/>
-      <c r="AE41" s="168"/>
-      <c r="AF41" s="168"/>
+      <c r="AB41" s="144"/>
+      <c r="AC41" s="144"/>
+      <c r="AD41" s="144"/>
+      <c r="AE41" s="144"/>
+      <c r="AF41" s="144"/>
       <c r="AG41" s="81"/>
       <c r="AH41" s="81"/>
       <c r="AI41" s="72"/>
@@ -5384,19 +5399,19 @@
       <c r="BC41" s="57"/>
       <c r="BD41" s="81"/>
       <c r="BE41" s="81"/>
-      <c r="BF41" s="152"/>
-      <c r="BG41" s="152"/>
-      <c r="BH41" s="152"/>
-      <c r="BI41" s="152"/>
-      <c r="BJ41" s="152"/>
+      <c r="BF41" s="128"/>
+      <c r="BG41" s="128"/>
+      <c r="BH41" s="128"/>
+      <c r="BI41" s="128"/>
+      <c r="BJ41" s="128"/>
       <c r="BK41" s="81"/>
       <c r="BL41" s="81"/>
       <c r="BM41" s="81"/>
       <c r="BN41" s="81"/>
-      <c r="BO41" s="154"/>
-      <c r="BP41" s="162"/>
-      <c r="BQ41" s="162"/>
-      <c r="BR41" s="155"/>
+      <c r="BO41" s="130"/>
+      <c r="BP41" s="138"/>
+      <c r="BQ41" s="138"/>
+      <c r="BR41" s="131"/>
       <c r="BS41" s="42"/>
       <c r="BT41" s="42"/>
       <c r="BU41" s="42"/>
@@ -5407,7 +5422,9 @@
     </row>
     <row r="42" spans="1:77" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="31"/>
-      <c r="B42" s="46"/>
+      <c r="B42" s="46">
+        <v>3.5</v>
+      </c>
       <c r="C42" s="50" t="s">
         <v>82</v>
       </c>
@@ -5427,9 +5444,9 @@
       <c r="H42" s="111"/>
       <c r="I42" s="112"/>
       <c r="J42" s="81"/>
-      <c r="K42" s="154"/>
-      <c r="L42" s="162"/>
-      <c r="M42" s="165"/>
+      <c r="K42" s="130"/>
+      <c r="L42" s="138"/>
+      <c r="M42" s="141"/>
       <c r="N42" s="89"/>
       <c r="O42" s="89"/>
       <c r="P42" s="89"/>
@@ -5444,11 +5461,11 @@
       <c r="Y42" s="81"/>
       <c r="Z42" s="81"/>
       <c r="AA42" s="81"/>
-      <c r="AB42" s="168"/>
-      <c r="AC42" s="168"/>
-      <c r="AD42" s="168"/>
-      <c r="AE42" s="168"/>
-      <c r="AF42" s="168"/>
+      <c r="AB42" s="144"/>
+      <c r="AC42" s="144"/>
+      <c r="AD42" s="144"/>
+      <c r="AE42" s="144"/>
+      <c r="AF42" s="144"/>
       <c r="AG42" s="81"/>
       <c r="AH42" s="81"/>
       <c r="AI42" s="81"/>
@@ -5459,11 +5476,11 @@
       <c r="AN42" s="81"/>
       <c r="AO42" s="81"/>
       <c r="AP42" s="81"/>
-      <c r="AQ42" s="151"/>
-      <c r="AR42" s="151"/>
-      <c r="AS42" s="151"/>
-      <c r="AT42" s="151"/>
-      <c r="AU42" s="151"/>
+      <c r="AQ42" s="127"/>
+      <c r="AR42" s="127"/>
+      <c r="AS42" s="127"/>
+      <c r="AT42" s="127"/>
+      <c r="AU42" s="127"/>
       <c r="AV42" s="81"/>
       <c r="AW42" s="81"/>
       <c r="AX42" s="81"/>
@@ -5483,10 +5500,10 @@
       <c r="BL42" s="72"/>
       <c r="BM42" s="72"/>
       <c r="BN42" s="72"/>
-      <c r="BO42" s="163"/>
-      <c r="BP42" s="158"/>
-      <c r="BQ42" s="158"/>
-      <c r="BR42" s="164"/>
+      <c r="BO42" s="139"/>
+      <c r="BP42" s="134"/>
+      <c r="BQ42" s="134"/>
+      <c r="BR42" s="140"/>
       <c r="BS42" s="72"/>
       <c r="BT42" s="72"/>
       <c r="BU42" s="72"/>
@@ -5498,7 +5515,7 @@
     <row r="43" spans="1:77" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="31"/>
       <c r="B43" s="32">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="C43" s="50" t="s">
         <v>58</v>
@@ -5576,8 +5593,8 @@
       <c r="BM43" s="72"/>
       <c r="BN43" s="72"/>
       <c r="BO43" s="72"/>
-      <c r="BP43" s="161"/>
-      <c r="BQ43" s="161"/>
+      <c r="BP43" s="137"/>
+      <c r="BQ43" s="137"/>
       <c r="BR43" s="72"/>
       <c r="BS43" s="72"/>
       <c r="BT43" s="72"/>
@@ -5590,7 +5607,7 @@
     <row r="44" spans="1:77" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="31"/>
       <c r="B44" s="46">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="C44" s="50" t="s">
         <v>67</v>
@@ -5682,7 +5699,7 @@
     <row r="45" spans="1:77" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="31"/>
       <c r="B45" s="32">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="C45" s="50" t="s">
         <v>41</v>
@@ -5773,7 +5790,9 @@
     </row>
     <row r="46" spans="1:77" s="113" customFormat="1" ht="16.2" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="107"/>
-      <c r="B46" s="108"/>
+      <c r="B46" s="108">
+        <v>3.9</v>
+      </c>
       <c r="C46" s="109" t="s">
         <v>77</v>
       </c>
@@ -5810,11 +5829,11 @@
       <c r="Y46" s="84"/>
       <c r="Z46" s="81"/>
       <c r="AA46" s="81"/>
-      <c r="AB46" s="168"/>
-      <c r="AC46" s="168"/>
-      <c r="AD46" s="168"/>
-      <c r="AE46" s="168"/>
-      <c r="AF46" s="168"/>
+      <c r="AB46" s="144"/>
+      <c r="AC46" s="144"/>
+      <c r="AD46" s="144"/>
+      <c r="AE46" s="144"/>
+      <c r="AF46" s="144"/>
       <c r="AG46" s="81"/>
       <c r="AH46" s="81"/>
       <c r="AI46" s="81"/>
@@ -5825,9 +5844,9 @@
       <c r="AN46" s="81"/>
       <c r="AO46" s="81"/>
       <c r="AP46" s="81"/>
-      <c r="AQ46" s="151"/>
-      <c r="AR46" s="151"/>
-      <c r="AS46" s="151"/>
+      <c r="AQ46" s="127"/>
+      <c r="AR46" s="127"/>
+      <c r="AS46" s="127"/>
       <c r="AT46" s="85"/>
       <c r="AU46" s="85"/>
       <c r="AV46" s="72"/>
@@ -5862,8 +5881,8 @@
       <c r="BY46" s="81"/>
     </row>
     <row r="47" spans="1:77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="32">
-        <v>6.7</v>
+      <c r="B47" s="169">
+        <v>3.1</v>
       </c>
       <c r="C47" s="50" t="s">
         <v>76</v>
@@ -5954,7 +5973,7 @@
     </row>
     <row r="48" spans="1:77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="46">
-        <v>3.8</v>
+        <v>3.11</v>
       </c>
       <c r="C48" s="50" t="s">
         <v>51</v>
@@ -5992,11 +6011,11 @@
       <c r="Y48" s="51"/>
       <c r="Z48" s="51"/>
       <c r="AA48" s="42"/>
-      <c r="AB48" s="168"/>
-      <c r="AC48" s="168"/>
-      <c r="AD48" s="168"/>
-      <c r="AE48" s="168"/>
-      <c r="AF48" s="168"/>
+      <c r="AB48" s="144"/>
+      <c r="AC48" s="144"/>
+      <c r="AD48" s="144"/>
+      <c r="AE48" s="144"/>
+      <c r="AF48" s="144"/>
       <c r="AG48" s="42"/>
       <c r="AH48" s="42"/>
       <c r="AI48" s="42"/>
@@ -6045,7 +6064,7 @@
     </row>
     <row r="49" spans="2:77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="46">
-        <v>3.9</v>
+        <v>3.12</v>
       </c>
       <c r="C49" s="50" t="s">
         <v>60</v>
@@ -6136,7 +6155,7 @@
     </row>
     <row r="50" spans="2:77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="46">
-        <v>3.1</v>
+        <v>3.13</v>
       </c>
       <c r="C50" s="50" t="s">
         <v>70</v>
@@ -6174,11 +6193,11 @@
       <c r="Y50" s="103"/>
       <c r="Z50" s="103"/>
       <c r="AA50" s="81"/>
-      <c r="AB50" s="168"/>
-      <c r="AC50" s="168"/>
-      <c r="AD50" s="168"/>
-      <c r="AE50" s="168"/>
-      <c r="AF50" s="168"/>
+      <c r="AB50" s="144"/>
+      <c r="AC50" s="144"/>
+      <c r="AD50" s="144"/>
+      <c r="AE50" s="144"/>
+      <c r="AF50" s="144"/>
       <c r="AG50" s="81"/>
       <c r="AH50" s="81"/>
       <c r="AI50" s="81"/>
@@ -6226,7 +6245,9 @@
       <c r="BY50" s="42"/>
     </row>
     <row r="51" spans="2:77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="46"/>
+      <c r="B51" s="46">
+        <v>3.14</v>
+      </c>
       <c r="C51" s="50" t="s">
         <v>78</v>
       </c>
@@ -6263,11 +6284,11 @@
       <c r="Y51" s="103"/>
       <c r="Z51" s="103"/>
       <c r="AA51" s="81"/>
-      <c r="AB51" s="168"/>
-      <c r="AC51" s="168"/>
-      <c r="AD51" s="168"/>
-      <c r="AE51" s="168"/>
-      <c r="AF51" s="168"/>
+      <c r="AB51" s="144"/>
+      <c r="AC51" s="144"/>
+      <c r="AD51" s="144"/>
+      <c r="AE51" s="144"/>
+      <c r="AF51" s="144"/>
       <c r="AG51" s="81"/>
       <c r="AH51" s="81"/>
       <c r="AI51" s="81"/>
@@ -6293,11 +6314,11 @@
       <c r="BC51" s="42"/>
       <c r="BD51" s="42"/>
       <c r="BE51" s="42"/>
-      <c r="BF51" s="152"/>
-      <c r="BG51" s="152"/>
-      <c r="BH51" s="152"/>
-      <c r="BI51" s="152"/>
-      <c r="BJ51" s="152"/>
+      <c r="BF51" s="128"/>
+      <c r="BG51" s="128"/>
+      <c r="BH51" s="128"/>
+      <c r="BI51" s="128"/>
+      <c r="BJ51" s="128"/>
       <c r="BK51" s="81"/>
       <c r="BL51" s="123"/>
       <c r="BM51" s="123"/>
@@ -6316,7 +6337,7 @@
     </row>
     <row r="52" spans="2:77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="46">
-        <v>3.11</v>
+        <v>3.15</v>
       </c>
       <c r="C52" s="50" t="s">
         <v>69</v>
@@ -6354,11 +6375,11 @@
       <c r="Y52" s="103"/>
       <c r="Z52" s="103"/>
       <c r="AA52" s="81"/>
-      <c r="AB52" s="168"/>
-      <c r="AC52" s="168"/>
-      <c r="AD52" s="168"/>
-      <c r="AE52" s="168"/>
-      <c r="AF52" s="168"/>
+      <c r="AB52" s="144"/>
+      <c r="AC52" s="144"/>
+      <c r="AD52" s="144"/>
+      <c r="AE52" s="144"/>
+      <c r="AF52" s="144"/>
       <c r="AG52" s="81"/>
       <c r="AH52" s="81"/>
       <c r="AI52" s="81"/>
@@ -6485,17 +6506,20 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="O5:Z5"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="N2:AD2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="O4:AA4"/>
+    <mergeCell ref="W10:AK10"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:M7"/>
+    <mergeCell ref="P6:U6"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="R11:V11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="P8:U8"/>
+    <mergeCell ref="P7:U7"/>
     <mergeCell ref="BA10:BY10"/>
     <mergeCell ref="H11:L11"/>
     <mergeCell ref="M11:Q11"/>
@@ -6512,20 +6536,17 @@
     <mergeCell ref="AQ11:AU11"/>
     <mergeCell ref="AV11:AZ11"/>
     <mergeCell ref="H10:V10"/>
-    <mergeCell ref="W10:AK10"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:M7"/>
-    <mergeCell ref="P6:U6"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="R11:V11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="P8:U8"/>
-    <mergeCell ref="P7:U7"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="O5:Z5"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="N2:AD2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="O4:AA4"/>
   </mergeCells>
   <conditionalFormatting sqref="D13:D17 D38:D53 D19:D36">
     <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
@@ -6638,21 +6659,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F7EF2104F2CEFE4DACFBF5BA7D93FB4D" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bb0ed258f694207805e211ca255f9b46">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6b71f768-6d8b-468c-a986-1e1afc74f0e3" xmlns:ns4="d07d918a-d172-4450-8f4a-7b087689ff85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c03c9fe975be0719773112499dde791" ns3:_="" ns4:_="">
     <xsd:import namespace="6b71f768-6d8b-468c-a986-1e1afc74f0e3"/>
@@ -6881,32 +6887,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14D564B3-5264-41FC-B8E0-395B567D9994}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d07d918a-d172-4450-8f4a-7b087689ff85"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="6b71f768-6d8b-468c-a986-1e1afc74f0e3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7F187D4-7552-4664-8374-8AA9CBDA3C6B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FABC364-430D-422C-AD85-145699D2125C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6923,4 +6919,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7F187D4-7552-4664-8374-8AA9CBDA3C6B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14D564B3-5264-41FC-B8E0-395B567D9994}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d07d918a-d172-4450-8f4a-7b087689ff85"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="6b71f768-6d8b-468c-a986-1e1afc74f0e3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>